--- a/com.js.ens.transformation/mapping.xlsx
+++ b/com.js.ens.transformation/mapping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8____내문서\workspace\2016\com.js.ens.transformation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="변수정의" sheetId="2" r:id="rId1"/>
     <sheet name="폴더 구조 설명" sheetId="4" r:id="rId2"/>
     <sheet name="UI 기능 설명" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="210">
   <si>
     <t>%WR TDIA%</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,545 +43,742 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Bottom WR Diameter(mm)</t>
+  </si>
+  <si>
+    <t>WR Crown(mm)</t>
+  </si>
+  <si>
+    <t>WR Length(mm)</t>
+  </si>
+  <si>
+    <t>WR Mesh Angle(deg.)</t>
+  </si>
+  <si>
+    <t>*eval_define wr_tdia %WR TDIA% |!P</t>
+  </si>
+  <si>
+    <t>*eval_define wr_bdia %WR BDIA% |!P</t>
+  </si>
+  <si>
+    <t>*eval_define bur_tdia %BUR TDIA% |!P</t>
+  </si>
+  <si>
+    <t>*eval_define roll_gap %ROL GAP% |!P</t>
+  </si>
+  <si>
+    <t>*eval_define wr_div_angle %wr_div_angle% |!D</t>
+  </si>
+  <si>
+    <t>*eval_define bur_div_angle %bur_div_angle% |!D</t>
+  </si>
+  <si>
+    <t>*eval_define wr_len %wr_len%/2.0 | for F1-F3 Work Roll |!D</t>
+  </si>
+  <si>
+    <t>| *eval_define wr_len %wr_len%/2.0 | for F4-F7 Work Roll |!D</t>
+  </si>
+  <si>
+    <t>*eval_define bur_len %bur_len%/2.0 | for F1-F7 BackUp Roll |!D</t>
+  </si>
+  <si>
+    <t>*eval_define p_ent_temp %ENTRY TEMP%</t>
+  </si>
+  <si>
+    <t>*eval_define p_exit_temp %EXIT TEMP%</t>
+  </si>
+  <si>
+    <t>*eval_define p_in %p_in%</t>
+  </si>
+  <si>
+    <t>*eval_define pl_m %pl_m%</t>
+  </si>
+  <si>
+    <t>*eval_define t_div %t_div%</t>
+  </si>
+  <si>
+    <t>*eval_define p_thk %ENTRY THK%</t>
+  </si>
+  <si>
+    <t>*eval_define p_wid %STP WID%</t>
+  </si>
+  <si>
+    <t>*eval_define p_len %STP LEN%</t>
+  </si>
+  <si>
+    <t>*eval_define pl_vel_mpm %SPEED%  |!P</t>
+  </si>
+  <si>
+    <t>*eval_define pass_line %PAS LINE%         |!P</t>
+  </si>
+  <si>
+    <t>*eval_define p_cross_ang %P-CROSS%        |!P</t>
+  </si>
+  <si>
+    <t>*eval_define roll_torque %TORQ%*9.8          |!P</t>
+  </si>
+  <si>
+    <t>*eval_define bend_f %BEND%*1000.0*9.8       |!P</t>
+  </si>
+  <si>
+    <t>*eval_define tens_f %TENS%*9.8*p_thk*p_wid   |!P</t>
+  </si>
+  <si>
+    <t>*eval_define f_r2p %f_r2p% | Friction Coef. of Roll to Plate Contact  |!U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*eval_define f_r2r %f_r2r% | Friction Coef. of Roll to Roll Contact  |!U </t>
+  </si>
+  <si>
+    <t>Top BUR Diameter(mm)</t>
+  </si>
+  <si>
+    <t>Bottom BUR Diameter(mm)</t>
+  </si>
+  <si>
+    <t>BUR Mesh Angle(deg.)</t>
+  </si>
+  <si>
+    <t>BUR Length(mm)</t>
+  </si>
+  <si>
+    <t>Width(mm)</t>
+  </si>
+  <si>
+    <t>Entry Temperature(C)</t>
+  </si>
+  <si>
+    <t>Exit Temperature(C)</t>
+  </si>
+  <si>
+    <t>Initial Position(mm)</t>
+  </si>
+  <si>
+    <t>Mesh Length(mm)</t>
+  </si>
+  <si>
+    <t>Thickness Mesh Divisions</t>
+  </si>
+  <si>
+    <t>Pass Line(mm)</t>
+  </si>
+  <si>
+    <t>Pair Cross Angle(Deg.)</t>
+  </si>
+  <si>
+    <t>Bender Force(Tone)</t>
+  </si>
+  <si>
+    <t>Roll Torque(Tone.m)</t>
+  </si>
+  <si>
+    <t>Tension Stress(Kgf/mm2)</t>
+  </si>
+  <si>
+    <t>Roll to Plate Frict. Coef.</t>
+  </si>
+  <si>
+    <t>Roll to Roll Fric. Coef.</t>
+  </si>
+  <si>
+    <t>*eval_define lcase_dt %lcase_dt%    |!D</t>
+  </si>
+  <si>
+    <t>*eval_define post_inc %post_inc%    |!D</t>
+  </si>
+  <si>
+    <t>Post Writing frequency</t>
+  </si>
+  <si>
+    <t>%BUR BDIA%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ROL GAP%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%bur_div_angle%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%bur_len%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%STP WID%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%STP LEN%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ENTRY TEMP%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%EXIT TEMP%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%p_in%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%t_div%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%SPEED%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PAS LINE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%P-CROSS%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%TORQ%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%BEND%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%TENS%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%f_r2p%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%f_r2r%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%post_inc%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%FRCE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P Log table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%EXIT THK%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ROL TIM%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%BUR WEAR%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%WR WEAR%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%WR THRM%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%YM VALUE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MD VALUE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%Domain%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%Thread%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young's Modulus(MPa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermal Expansion Coefficient(mm/mm)</t>
+  </si>
+  <si>
+    <t>Poisson's Ratio</t>
+  </si>
+  <si>
+    <t>Mass Density(Mg/mm^3)</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Thread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc 변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 라벨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PR VALUE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%TEH VALUE%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%wr_trot%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%wr_brot%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%bur_trot%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%bur_brot%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top WR Rot. Vel.(RPM)</t>
+  </si>
+  <si>
+    <t>Bottom WR Rot. Vel.(RPM)</t>
+  </si>
+  <si>
+    <t>Top BUR Rot. Vel.(RPM)</t>
+  </si>
+  <si>
+    <t>Bottom BUR Rot. Vel.(RPM)</t>
+  </si>
+  <si>
+    <t>%VAR1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%VAR2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%VAR3%</t>
+  </si>
+  <si>
+    <t>%VAR4%</t>
+  </si>
+  <si>
+    <t>%VAR5%</t>
+  </si>
+  <si>
+    <t>%VAR6%</t>
+  </si>
+  <si>
+    <t>%VAR7%</t>
+  </si>
+  <si>
+    <t>%VAR8%</t>
+  </si>
+  <si>
+    <t>%VAR9%</t>
+  </si>
+  <si>
+    <t>%VAR10%</t>
+  </si>
+  <si>
+    <t>%VAR11%</t>
+  </si>
+  <si>
+    <t>%VAR12%</t>
+  </si>
+  <si>
+    <t>%VAR13%</t>
+  </si>
+  <si>
+    <t>%VAR14%</t>
+  </si>
+  <si>
+    <t>%VAR15%</t>
+  </si>
+  <si>
+    <t>%VAR16%</t>
+  </si>
+  <si>
+    <t>Variable Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%STHK%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%SWID%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%SLEN%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%SWET%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PTHK%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PWID%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PLEN%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%PWET%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlabPlate Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eval_define bur_bdia %BUR BDIA% |!P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*eval_define wr_crown %WR ICRN% |!P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%IDL TIM%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%BUR TDIA%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userModule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userWorkspace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배포파일 설명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Different Ratio-bottom roll(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%tb_vel_rate_bottom%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis Time(sec.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%lcase_time%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of Inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Increment(sec.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity(mpm)*1000/60/(top wr Dia./2)*(Speed Different Ratio-top roll/100)*60/(2*pi) </t>
+  </si>
+  <si>
+    <t>수식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity(mpm)*1000/60/(bot. wr Dia./2)*(Speed Different Ratio-bot roll/100) *60/(2*pi) </t>
+  </si>
+  <si>
+    <t>Velocity(mpm)*1000/60/(top bur Dia./2)*(Speed Different Ratio-top roll/100)*60/(2*pi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity(mpm)*1000/60/(bot. bur Dia./2)*(Speed Different Ratio-bot roll/100)*60/(2*pi) </t>
+  </si>
+  <si>
+    <t>lcase_time/lcase_inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%lcase_dt% -&gt; %lcase_inc%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc 선언</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_tdia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_bdia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bur_tdia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bur_bdia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll_gap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_div_angle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bur_div_angle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P Log (P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitValue.txt (D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bur_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_thk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_ent_temp</t>
+  </si>
+  <si>
+    <t>p_exit_temp</t>
+  </si>
+  <si>
+    <t>p_in</t>
+  </si>
+  <si>
+    <t>pl_m</t>
+  </si>
+  <si>
+    <t>t_div</t>
+  </si>
+  <si>
+    <t>p_wid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%pl_m%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_vel_mpm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass_line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_cross_ang</t>
+  </si>
+  <si>
+    <t>roll_torque</t>
+  </si>
+  <si>
+    <t>tens_f</t>
+  </si>
+  <si>
+    <t>bend_f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%BEND%*1000.0*9.8</t>
+  </si>
+  <si>
+    <t>%TENS%*9.8*p_thk*p_wid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%TORQ%*9.8          </t>
+  </si>
+  <si>
+    <t>%wr_len%/2.0</t>
+  </si>
+  <si>
+    <t>%wr_len%/2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%bur_len%/2.0</t>
+  </si>
+  <si>
+    <t>f_r2p</t>
+  </si>
+  <si>
+    <t>f_r2r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed from UI (U)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p_len*p_thk/(roll_gap*pl_vel)*.8 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcase_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcase_inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcase_dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%inc_time% -&gt; %lcase_dt%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%tb_vel_rate_top%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ENTRY THK%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Top WR Diameter(mm)</t>
-  </si>
-  <si>
-    <t>Bottom WR Diameter(mm)</t>
-  </si>
-  <si>
-    <t>WR Crown(mm)</t>
-  </si>
-  <si>
-    <t>WR Length(mm)</t>
-  </si>
-  <si>
-    <t>WR Mesh Angle(deg.)</t>
-  </si>
-  <si>
-    <t>*eval_define wr_tdia %WR TDIA% |!P</t>
-  </si>
-  <si>
-    <t>*eval_define wr_bdia %WR BDIA% |!P</t>
-  </si>
-  <si>
-    <t>*eval_define bur_tdia %BUR TDIA% |!P</t>
-  </si>
-  <si>
-    <t>*eval_define roll_gap %ROL GAP% |!P</t>
-  </si>
-  <si>
-    <t>*eval_define wr_div_angle %wr_div_angle% |!D</t>
-  </si>
-  <si>
-    <t>*eval_define bur_div_angle %bur_div_angle% |!D</t>
-  </si>
-  <si>
-    <t>*eval_define wr_len %wr_len%/2.0 | for F1-F3 Work Roll |!D</t>
-  </si>
-  <si>
-    <t>| *eval_define wr_len %wr_len%/2.0 | for F4-F7 Work Roll |!D</t>
-  </si>
-  <si>
-    <t>*eval_define bur_len %bur_len%/2.0 | for F1-F7 BackUp Roll |!D</t>
-  </si>
-  <si>
-    <t>*eval_define p_ent_temp %ENTRY TEMP%</t>
-  </si>
-  <si>
-    <t>*eval_define p_exit_temp %EXIT TEMP%</t>
-  </si>
-  <si>
-    <t>*eval_define p_in %p_in%</t>
-  </si>
-  <si>
-    <t>*eval_define pl_m %pl_m%</t>
-  </si>
-  <si>
-    <t>*eval_define t_div %t_div%</t>
-  </si>
-  <si>
-    <t>*eval_define p_thk %ENTRY THK%</t>
-  </si>
-  <si>
-    <t>*eval_define p_wid %STP WID%</t>
-  </si>
-  <si>
-    <t>*eval_define p_len %STP LEN%</t>
-  </si>
-  <si>
-    <t>*eval_define pl_vel_mpm %SPEED%  |!P</t>
-  </si>
-  <si>
-    <t>*eval_define pass_line %PAS LINE%         |!P</t>
-  </si>
-  <si>
-    <t>*eval_define p_cross_ang %P-CROSS%        |!P</t>
-  </si>
-  <si>
-    <t>*eval_define roll_torque %TORQ%*9.8          |!P</t>
-  </si>
-  <si>
-    <t>*eval_define bend_f %BEND%*1000.0*9.8       |!P</t>
-  </si>
-  <si>
-    <t>*eval_define tens_f %TENS%*9.8*p_thk*p_wid   |!P</t>
-  </si>
-  <si>
-    <t>*eval_define f_r2p %f_r2p% | Friction Coef. of Roll to Plate Contact  |!U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*eval_define f_r2r %f_r2r% | Friction Coef. of Roll to Roll Contact  |!U </t>
-  </si>
-  <si>
-    <t>Top BUR Diameter(mm)</t>
-  </si>
-  <si>
-    <t>Bottom BUR Diameter(mm)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Different Ratio-top roll(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length(mm)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thickness(mm)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Roll Gap(mm)</t>
-  </si>
-  <si>
-    <t>BUR Mesh Angle(deg.)</t>
-  </si>
-  <si>
-    <t>BUR Length(mm)</t>
-  </si>
-  <si>
-    <t>Thickness(mm)</t>
-  </si>
-  <si>
-    <t>Width(mm)</t>
-  </si>
-  <si>
-    <t>Length(mm)</t>
-  </si>
-  <si>
-    <t>Entry Temperature(C)</t>
-  </si>
-  <si>
-    <t>Exit Temperature(C)</t>
-  </si>
-  <si>
-    <t>Initial Position(mm)</t>
-  </si>
-  <si>
-    <t>Mesh Length(mm)</t>
-  </si>
-  <si>
-    <t>Thickness Mesh Divisions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Velocity(mpm)</t>
-  </si>
-  <si>
-    <t>Pass Line(mm)</t>
-  </si>
-  <si>
-    <t>Pair Cross Angle(Deg.)</t>
-  </si>
-  <si>
-    <t>Bender Force(Tone)</t>
-  </si>
-  <si>
-    <t>Roll Torque(Tone.m)</t>
-  </si>
-  <si>
-    <t>Tension Stress(Kgf/mm2)</t>
-  </si>
-  <si>
-    <t>Roll to Plate Frict. Coef.</t>
-  </si>
-  <si>
-    <t>Roll to Roll Fric. Coef.</t>
-  </si>
-  <si>
-    <t>*eval_define lcase_dt %lcase_dt%    |!D</t>
-  </si>
-  <si>
-    <t>*eval_define post_inc %post_inc%    |!D</t>
-  </si>
-  <si>
-    <t>Time Increment(sec.-dt)</t>
-  </si>
-  <si>
-    <t>Post Writing frequency</t>
-  </si>
-  <si>
-    <t>%BUR BDIA%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%ROL GAP%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%bur_div_angle%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%bur_len%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%ENTRY THK%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%STP WID%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%STP LEN%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%ENTRY TEMP%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%EXIT TEMP%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%p_in%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%t_div%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%pl_m%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%SPEED%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PAS LINE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%P-CROSS%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%TORQ%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%BEND%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%TENS%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%f_r2p%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%f_r2r%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%lcase_dt%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%post_inc%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%FRCE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P Log table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%EXIT THK%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%ROL TIM%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%BUR WEAR%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%WR WEAR%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%WR THRM%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%YM VALUE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%MD VALUE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%inc_time%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%Domain%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%Thread%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Young's Modulus(MPa)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thermal Expansion Coefficient(mm/mm)</t>
-  </si>
-  <si>
-    <t>Poisson's Ratio</t>
-  </si>
-  <si>
-    <t>Mass Density(Mg/mm^3)</t>
-  </si>
-  <si>
-    <t>Increment time(sec.)</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Thread</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proc 변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 라벨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PR VALUE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%TEH VALUE%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%wr_trot%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%wr_brot%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%bur_trot%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%bur_brot%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top WR Rot. Vel.(RPM)</t>
-  </si>
-  <si>
-    <t>Bottom WR Rot. Vel.(RPM)</t>
-  </si>
-  <si>
-    <t>Top BUR Rot. Vel.(RPM)</t>
-  </si>
-  <si>
-    <t>Bottom BUR Rot. Vel.(RPM)</t>
-  </si>
-  <si>
-    <t>%VAR1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%VAR2%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%VAR3%</t>
-  </si>
-  <si>
-    <t>%VAR4%</t>
-  </si>
-  <si>
-    <t>%VAR5%</t>
-  </si>
-  <si>
-    <t>%VAR6%</t>
-  </si>
-  <si>
-    <t>%VAR7%</t>
-  </si>
-  <si>
-    <t>%VAR8%</t>
-  </si>
-  <si>
-    <t>%VAR9%</t>
-  </si>
-  <si>
-    <t>%VAR10%</t>
-  </si>
-  <si>
-    <t>%VAR11%</t>
-  </si>
-  <si>
-    <t>%VAR12%</t>
-  </si>
-  <si>
-    <t>%VAR13%</t>
-  </si>
-  <si>
-    <t>%VAR14%</t>
-  </si>
-  <si>
-    <t>%VAR15%</t>
-  </si>
-  <si>
-    <t>%VAR16%</t>
-  </si>
-  <si>
-    <t>Variable Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%STHK%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%SWID%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%SLEN%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%SWET%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PTHK%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PWID%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PLEN%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%PWET%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlabPlate Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*eval_define bur_bdia %BUR BDIA% |!P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*eval_define wr_crown %WR ICRN% |!P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%IDL TIM%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%BUR TDIA%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed Different Ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%speed_different_ratio%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포파일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userModule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userWorkspace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">배포파일 설명 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴더 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,16 +821,59 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -660,6 +905,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +987,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="제목 1" xfId="1" builtinId="16"/>
@@ -692,10 +1033,61 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28922</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19688735" y="0"/>
+          <a:ext cx="6180952" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3370,7 +3762,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3981,7 +4373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4013,9 +4405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4047,6 +4440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4222,827 +4616,1265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.75" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" thickBot="1">
+    <row r="1" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E21" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D53" s="5"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+      <c r="D77" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
+      <c r="D78" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
@@ -5051,62 +5883,62 @@
     <col min="14" max="14" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5118,16 +5950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y107" sqref="Y107"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
     </row>
   </sheetData>

--- a/com.js.ens.transformation/mapping.xlsx
+++ b/com.js.ens.transformation/mapping.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8____내문서\workspace\2016\com.js.ens.transformation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="폴더 구조 설명" sheetId="4" r:id="rId2"/>
     <sheet name="UI 기능 설명" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -742,10 +737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>%tb_vel_rate_top%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>%ENTRY THK%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -771,14 +762,18 @@
   </si>
   <si>
     <t>Velocity(mpm)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%vel_rate_top%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,7 +1062,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4373,7 +4368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4405,10 +4400,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4440,7 +4434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4616,14 +4609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="67.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -4633,7 +4626,7 @@
     <col min="6" max="6" width="82.75" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="24.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -4653,7 +4646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4664,14 +4657,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4689,7 +4682,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4707,7 +4700,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>129</v>
       </c>
@@ -4725,7 +4718,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>130</v>
       </c>
@@ -4743,7 +4736,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4751,7 +4744,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -4762,14 +4755,14 @@
         <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4777,7 +4770,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -4795,7 +4788,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -4813,7 +4806,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4821,7 +4814,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4841,7 +4834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -4861,7 +4854,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -4881,7 +4874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4889,7 +4882,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -4897,17 +4890,17 @@
         <v>172</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -4925,7 +4918,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -4936,14 +4929,14 @@
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +4954,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4979,7 +4972,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -4997,7 +4990,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5015,7 +5008,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -5033,7 +5026,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5041,7 +5034,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -5052,14 +5045,14 @@
         <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5067,7 +5060,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -5085,7 +5078,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -5103,7 +5096,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -5143,7 +5136,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -5163,7 +5156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5171,7 +5164,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -5189,7 +5182,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5200,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5215,7 +5208,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
@@ -5231,7 +5224,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
@@ -5247,7 +5240,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5255,7 +5248,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5263,7 +5256,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -5275,7 +5268,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -5287,7 +5280,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
@@ -5299,7 +5292,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
@@ -5311,7 +5304,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -5323,7 +5316,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
@@ -5335,7 +5328,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
@@ -5347,7 +5340,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5355,7 +5348,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
@@ -5367,7 +5360,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
@@ -5379,7 +5372,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
@@ -5391,7 +5384,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
@@ -5403,7 +5396,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5411,7 +5404,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
         <v>197</v>
@@ -5427,7 +5420,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="s">
         <v>200</v>
@@ -5443,7 +5436,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
@@ -5455,7 +5448,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
@@ -5467,7 +5460,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5475,19 +5468,19 @@
       <c r="E58" s="9"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
@@ -5499,7 +5492,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
@@ -5513,7 +5506,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
@@ -5527,7 +5520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
@@ -5541,7 +5534,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
@@ -5555,7 +5548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5563,7 +5556,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
@@ -5575,7 +5568,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
@@ -5587,7 +5580,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
@@ -5599,7 +5592,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
@@ -5611,7 +5604,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
@@ -5623,7 +5616,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
@@ -5635,7 +5628,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
@@ -5647,7 +5640,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
@@ -5659,7 +5652,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
@@ -5671,7 +5664,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
@@ -5683,7 +5676,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
@@ -5695,7 +5688,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
@@ -5707,7 +5700,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
@@ -5719,7 +5712,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
@@ -5731,7 +5724,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
@@ -5743,7 +5736,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
@@ -5755,7 +5748,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5763,7 +5756,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
@@ -5775,7 +5768,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
@@ -5787,7 +5780,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
@@ -5799,7 +5792,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
@@ -5811,7 +5804,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
@@ -5823,7 +5816,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
@@ -5835,7 +5828,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
@@ -5847,7 +5840,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
@@ -5867,14 +5860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="3.5" customWidth="1"/>
@@ -5883,7 +5876,7 @@
     <col min="14" max="14" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5891,17 +5884,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="F5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="K11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -5909,7 +5902,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>135</v>
       </c>
@@ -5917,7 +5910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>134</v>
       </c>
@@ -5925,7 +5918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>138</v>
       </c>
@@ -5933,7 +5926,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92" t="s">
         <v>140</v>
       </c>
@@ -5950,16 +5943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B44"/>
   <sheetViews>
     <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="4"/>
     </row>
   </sheetData>
